--- a/biology/Zoologie/Aplocera_plagiata/Aplocera_plagiata.xlsx
+++ b/biology/Zoologie/Aplocera_plagiata/Aplocera_plagiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aplocera plagiata, la Triple raie ou la Rayure commune, est une espèce de lépidoptères (papillons) de la famille des Geometridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (18 mai 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 mai 2016) :
 Aplocera plagiata cypria Prout, 1937
 Aplocera plagiata scotica Richardson, 1952</t>
         </is>
@@ -543,11 +557,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Milieux sablonneux, landes, friches et lisères sèches, versants chauds[3].
-Plantes hôtes
-Millepertuis.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Milieux sablonneux, landes, friches et lisères sèches, versants chauds.
 </t>
         </is>
       </c>
@@ -573,10 +587,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millepertuis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aplocera_plagiata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aplocera_plagiata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bivoltin: mai à juillet puis septembre.
 </t>
